--- a/experiments/1000games/results_experiments1000games.xlsx
+++ b/experiments/1000games/results_experiments1000games.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="24915" windowHeight="12075" tabRatio="791" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="24915" windowHeight="12075" tabRatio="684" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DUCB1TVSExp3" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="122">
   <si>
     <t>Directory on gogeneral:</t>
   </si>
@@ -289,6 +289,111 @@
   </si>
   <si>
     <t>27/03/2014_12.24</t>
+  </si>
+  <si>
+    <t>05/04/2014_05.27</t>
+  </si>
+  <si>
+    <t>04/04/2014_18.32</t>
+  </si>
+  <si>
+    <t>05/04/2014_02.54</t>
+  </si>
+  <si>
+    <t>04/04/2014_19.58</t>
+  </si>
+  <si>
+    <t>04/04/2014_19.44</t>
+  </si>
+  <si>
+    <t>04/04/2014_22.36</t>
+  </si>
+  <si>
+    <t>04/04/2014_15.37</t>
+  </si>
+  <si>
+    <t>05/04/2014_10.46</t>
+  </si>
+  <si>
+    <t>06/04/2014_03.26</t>
+  </si>
+  <si>
+    <t>05/04/2014_06.12</t>
+  </si>
+  <si>
+    <t>04/04/2014_18.23</t>
+  </si>
+  <si>
+    <t>04/04/2014_23.32</t>
+  </si>
+  <si>
+    <t>04/04/2014_20.18</t>
+  </si>
+  <si>
+    <t>04/04/2014_19.29</t>
+  </si>
+  <si>
+    <t>04/04/2014_16.07</t>
+  </si>
+  <si>
+    <t>04/04/2014_16.01</t>
+  </si>
+  <si>
+    <t>05/04/2014_11.09</t>
+  </si>
+  <si>
+    <t>06/04/2014_00.09</t>
+  </si>
+  <si>
+    <t>05/04/2014_04.27</t>
+  </si>
+  <si>
+    <t>04/04/2014_18.41</t>
+  </si>
+  <si>
+    <t>05/04/2014_06.40</t>
+  </si>
+  <si>
+    <t>04/04/2014_20.12</t>
+  </si>
+  <si>
+    <t>04/04/2014_21.55</t>
+  </si>
+  <si>
+    <t>04/04/2014_15.00</t>
+  </si>
+  <si>
+    <t>05/04/2014_07.35</t>
+  </si>
+  <si>
+    <t>06/04/2014_04.05</t>
+  </si>
+  <si>
+    <t>05/04/2014_06.05</t>
+  </si>
+  <si>
+    <t>06/04/2014_05.06</t>
+  </si>
+  <si>
+    <t>06/04/2014_16.54</t>
+  </si>
+  <si>
+    <t>06/04/2014_06.28</t>
+  </si>
+  <si>
+    <t>06/04/2014_06.59</t>
+  </si>
+  <si>
+    <t>06/04/2014_10.03</t>
+  </si>
+  <si>
+    <t>06/04/2014_01.30</t>
+  </si>
+  <si>
+    <t>05/04/2014_07.41</t>
+  </si>
+  <si>
+    <t>06/04/2014_03.17</t>
   </si>
 </sst>
 </file>
@@ -873,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O116"/>
+  <dimension ref="C2:P125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
+    <sheetView topLeftCell="F106" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,12 +994,12 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>6</v>
       </c>
@@ -902,7 +1007,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -910,36 +1023,138 @@
         <v>33</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.748</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>498</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>2.69095937093074E-2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>2.69095937093074E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>1.5618137968400701E-2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>1.5618137968400701E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>1.56259528990716E-2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <v>1.56259528990716E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>6</v>
       </c>
@@ -947,12 +1162,132 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+      <c r="O19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>0.627</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>591</v>
+      </c>
+      <c r="O21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>72</v>
+      </c>
+      <c r="O22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>337</v>
+      </c>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24">
+        <v>2.9973969266681999E-2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24">
+        <v>2.9973969266681999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <v>2.8797396298971201E-2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25">
+        <v>2.8797396298971201E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>2.8811805805151299E-2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26">
+        <v>2.8811805805151299E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>6</v>
       </c>
@@ -960,12 +1295,132 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="O33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="O34" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34">
+        <v>7.4499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>920</v>
+      </c>
+      <c r="O35" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="O36" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37">
+        <v>69</v>
+      </c>
+      <c r="O37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>1.6275053290235299E-2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38">
+        <v>1.6275053290235299E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>1.5947192843883198E-2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39">
+        <v>1.5947192843883198E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>1.5955172425490299E-2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>15</v>
+      </c>
+      <c r="P40">
+        <v>1.5955172425490299E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L45" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L46" t="s">
         <v>6</v>
       </c>
@@ -973,12 +1428,132 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>90</v>
+      </c>
+      <c r="O47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48">
+        <v>1000</v>
+      </c>
+      <c r="O48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="O49" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>310</v>
+      </c>
+      <c r="O50" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51">
+        <v>328</v>
+      </c>
+      <c r="O51" t="s">
+        <v>11</v>
+      </c>
+      <c r="P51">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52">
+        <v>362</v>
+      </c>
+      <c r="O52" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>3.0948393793539499E-2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>13</v>
+      </c>
+      <c r="P53">
+        <v>3.0948393793539499E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <v>2.5353340576736601E-2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>14</v>
+      </c>
+      <c r="P54">
+        <v>2.5353340576736601E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55">
+        <v>2.53660267624575E-2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55">
+        <v>2.53660267624575E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L59" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>6</v>
       </c>
@@ -986,12 +1561,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>91</v>
+      </c>
+      <c r="O61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62">
+        <v>1000</v>
+      </c>
+      <c r="O62" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>9</v>
+      </c>
+      <c r="M63">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="O63" t="s">
+        <v>9</v>
+      </c>
+      <c r="P63">
+        <v>0.17349999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>10</v>
+      </c>
+      <c r="M64">
+        <v>709</v>
+      </c>
+      <c r="O64" t="s">
+        <v>10</v>
+      </c>
+      <c r="P64">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>11</v>
+      </c>
+      <c r="M65">
+        <v>235</v>
+      </c>
+      <c r="O65" t="s">
+        <v>11</v>
+      </c>
+      <c r="P65">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66">
+        <v>56</v>
+      </c>
+      <c r="O66" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="67" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67">
+        <v>2.3470764716983498E-2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>13</v>
+      </c>
+      <c r="P67">
+        <v>2.3470764716983498E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L68" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68">
+        <v>1.8032825524581499E-2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>14</v>
+      </c>
+      <c r="P68">
+        <v>1.8032825524581499E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69">
+        <v>1.80418487052935E-2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>15</v>
+      </c>
+      <c r="P69">
+        <v>1.80418487052935E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L73" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L74" t="s">
         <v>6</v>
       </c>
@@ -999,12 +1694,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>92</v>
+      </c>
+      <c r="O75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76">
+        <v>1000</v>
+      </c>
+      <c r="O76" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="O77" t="s">
+        <v>9</v>
+      </c>
+      <c r="P77">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>10</v>
+      </c>
+      <c r="M78">
+        <v>564</v>
+      </c>
+      <c r="O78" t="s">
+        <v>10</v>
+      </c>
+      <c r="P78">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79">
+        <v>322</v>
+      </c>
+      <c r="O79" t="s">
+        <v>11</v>
+      </c>
+      <c r="P79">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80">
+        <v>114</v>
+      </c>
+      <c r="O80" t="s">
+        <v>12</v>
+      </c>
+      <c r="P80">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>13</v>
+      </c>
+      <c r="M81">
+        <v>2.7675241643028099E-2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>13</v>
+      </c>
+      <c r="P81">
+        <v>2.7675241643028099E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82">
+        <v>2.13698432376094E-2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>14</v>
+      </c>
+      <c r="P82">
+        <v>2.13698432376094E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L83" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83">
+        <v>2.13805361796033E-2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>15</v>
+      </c>
+      <c r="P83">
+        <v>2.13805361796033E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L87" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L88" t="s">
         <v>6</v>
       </c>
@@ -1012,12 +1827,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L89" t="s">
+        <v>93</v>
+      </c>
+      <c r="O89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L90" t="s">
+        <v>8</v>
+      </c>
+      <c r="M90">
+        <v>1000</v>
+      </c>
+      <c r="O90" t="s">
+        <v>8</v>
+      </c>
+      <c r="P90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L91" t="s">
+        <v>9</v>
+      </c>
+      <c r="M91">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="O91" t="s">
+        <v>9</v>
+      </c>
+      <c r="P91">
+        <v>0.38550000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L92" t="s">
+        <v>10</v>
+      </c>
+      <c r="M92">
+        <v>259</v>
+      </c>
+      <c r="O92" t="s">
+        <v>10</v>
+      </c>
+      <c r="P92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L93" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93">
+        <v>711</v>
+      </c>
+      <c r="O93" t="s">
+        <v>11</v>
+      </c>
+      <c r="P93">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="94" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L94" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94">
+        <v>30</v>
+      </c>
+      <c r="O94" t="s">
+        <v>12</v>
+      </c>
+      <c r="P94">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L95" t="s">
+        <v>13</v>
+      </c>
+      <c r="M95">
+        <v>3.0166797370619201E-2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>13</v>
+      </c>
+      <c r="P95">
+        <v>3.0166797370619201E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L96" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96">
+        <v>1.5072865142367499E-2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>14</v>
+      </c>
+      <c r="P96">
+        <v>1.5072865142367499E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L97" t="s">
+        <v>15</v>
+      </c>
+      <c r="M97">
+        <v>1.50804072319775E-2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>15</v>
+      </c>
+      <c r="P97">
+        <v>1.50804072319775E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L101" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L102" t="s">
         <v>6</v>
       </c>
@@ -1025,12 +1960,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L103" t="s">
+        <v>94</v>
+      </c>
+      <c r="O103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L104" t="s">
+        <v>8</v>
+      </c>
+      <c r="M104">
+        <v>1000</v>
+      </c>
+      <c r="O104" t="s">
+        <v>8</v>
+      </c>
+      <c r="P104">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L105" t="s">
+        <v>9</v>
+      </c>
+      <c r="M105">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="O105" t="s">
+        <v>9</v>
+      </c>
+      <c r="P105">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L106" t="s">
+        <v>10</v>
+      </c>
+      <c r="M106">
+        <v>813</v>
+      </c>
+      <c r="O106" t="s">
+        <v>10</v>
+      </c>
+      <c r="P106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L107" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107">
+        <v>180</v>
+      </c>
+      <c r="O107" t="s">
+        <v>11</v>
+      </c>
+      <c r="P107">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L108" t="s">
+        <v>12</v>
+      </c>
+      <c r="M108">
+        <v>7</v>
+      </c>
+      <c r="O108" t="s">
+        <v>12</v>
+      </c>
+      <c r="P108">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="109" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L109" t="s">
+        <v>13</v>
+      </c>
+      <c r="M109">
+        <v>1.83436524607287E-2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>13</v>
+      </c>
+      <c r="P109">
+        <v>1.83436524607287E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L110" t="s">
+        <v>14</v>
+      </c>
+      <c r="M110">
+        <v>1.2791308986964499E-2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>14</v>
+      </c>
+      <c r="P110">
+        <v>1.2791308986964499E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L111" t="s">
+        <v>15</v>
+      </c>
+      <c r="M111">
+        <v>1.2797709442199601E-2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>15</v>
+      </c>
+      <c r="P111">
+        <v>1.2797709442199601E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L115" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L116" t="s">
         <v>6</v>
       </c>
@@ -1038,9 +2093,129 @@
         <v>22</v>
       </c>
     </row>
+    <row r="117" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L117" t="s">
+        <v>95</v>
+      </c>
+      <c r="O117" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L118" t="s">
+        <v>8</v>
+      </c>
+      <c r="M118">
+        <v>1000</v>
+      </c>
+      <c r="O118" t="s">
+        <v>8</v>
+      </c>
+      <c r="P118">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L119" t="s">
+        <v>9</v>
+      </c>
+      <c r="M119">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="O119" t="s">
+        <v>9</v>
+      </c>
+      <c r="P119">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L120" t="s">
+        <v>10</v>
+      </c>
+      <c r="M120">
+        <v>466</v>
+      </c>
+      <c r="O120" t="s">
+        <v>10</v>
+      </c>
+      <c r="P120">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L121" t="s">
+        <v>11</v>
+      </c>
+      <c r="M121">
+        <v>260</v>
+      </c>
+      <c r="O121" t="s">
+        <v>11</v>
+      </c>
+      <c r="P121">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L122" t="s">
+        <v>12</v>
+      </c>
+      <c r="M122">
+        <v>274</v>
+      </c>
+      <c r="O122" t="s">
+        <v>12</v>
+      </c>
+      <c r="P122">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="123" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L123" t="s">
+        <v>13</v>
+      </c>
+      <c r="M123">
+        <v>3.0413743840573101E-2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>13</v>
+      </c>
+      <c r="P123">
+        <v>3.0413743840573101E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L124" t="s">
+        <v>14</v>
+      </c>
+      <c r="M124">
+        <v>2.5986377477439902E-2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>14</v>
+      </c>
+      <c r="P124">
+        <v>2.5986377477439902E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L125" t="s">
+        <v>15</v>
+      </c>
+      <c r="M125">
+        <v>2.5999380419198099E-2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>15</v>
+      </c>
+      <c r="P125">
+        <v>2.5999380419198099E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2296,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q116"/>
+  <dimension ref="B3:R126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C6"/>
+    <sheetView topLeftCell="E100" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118:R126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,12 +3484,12 @@
     <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +3497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -2330,33 +3505,147 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>1000</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>493</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <v>502</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>2.7049704294132299E-2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <v>2.7049704294132299E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <v>1.57976486351608E-2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13">
+        <v>1.57976486351608E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14">
+        <v>1.5805553388537699E-2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14">
+        <v>1.5805553388537699E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N18" t="s">
         <v>6</v>
       </c>
@@ -2364,12 +3653,132 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21">
+        <v>1000</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <v>0.48249999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>491</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24">
+        <v>53</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>456</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <v>3.0971333681325298E-2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26">
+        <v>3.0971333681325298E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27">
+        <v>3.0138385988635798E-2</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27">
+        <v>3.0138385988635798E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>3.0153466492951302E-2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28">
+        <v>3.0153466492951302E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
         <v>6</v>
       </c>
@@ -2377,12 +3786,132 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>1000</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <v>0.996</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>9</v>
+      </c>
+      <c r="R36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>996</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="40" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>13</v>
+      </c>
+      <c r="O40">
+        <v>3.9121521442806902E-3</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40">
+        <v>3.9121521442806902E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41">
+        <v>3.9121521442806902E-3</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41">
+        <v>3.9121521442806902E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42">
+        <v>3.9141096886334999E-3</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>15</v>
+      </c>
+      <c r="R42">
+        <v>3.9141096886334999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N45" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N46" t="s">
         <v>6</v>
       </c>
@@ -2390,12 +3919,132 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49">
+        <v>1000</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O50">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50">
+        <v>0.94750000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>10</v>
+      </c>
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>10</v>
+      </c>
+      <c r="R51">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="52" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <v>7</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <v>944</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>12</v>
+      </c>
+      <c r="R53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>13</v>
+      </c>
+      <c r="O54">
+        <v>1.38237328533214E-2</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>13</v>
+      </c>
+      <c r="R54">
+        <v>1.38237328533214E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>14</v>
+      </c>
+      <c r="O55">
+        <v>1.3578394234960101E-2</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>14</v>
+      </c>
+      <c r="R55">
+        <v>1.3578394234960101E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>15</v>
+      </c>
+      <c r="O56">
+        <v>1.35851885282224E-2</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>15</v>
+      </c>
+      <c r="R56">
+        <v>1.35851885282224E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N59" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N60" t="s">
         <v>6</v>
       </c>
@@ -2403,12 +4052,132 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63">
+        <v>1000</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>8</v>
+      </c>
+      <c r="R63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O64">
+        <v>0.31</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>9</v>
+      </c>
+      <c r="R64">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="65" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65">
+        <v>243</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>10</v>
+      </c>
+      <c r="R65">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="66" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66">
+        <v>134</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>11</v>
+      </c>
+      <c r="R66">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67">
+        <v>623</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>12</v>
+      </c>
+      <c r="R67">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>13</v>
+      </c>
+      <c r="O68">
+        <v>2.86656281982446E-2</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>13</v>
+      </c>
+      <c r="R68">
+        <v>2.86656281982446E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69">
+        <v>2.63253611561171E-2</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>14</v>
+      </c>
+      <c r="R69">
+        <v>2.63253611561171E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70">
+        <v>2.6338533716939502E-2</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>15</v>
+      </c>
+      <c r="R70">
+        <v>2.6338533716939502E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N73" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N74" t="s">
         <v>6</v>
       </c>
@@ -2416,12 +4185,132 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>8</v>
+      </c>
+      <c r="O77">
+        <v>1000</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>8</v>
+      </c>
+      <c r="R77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>9</v>
+      </c>
+      <c r="O78">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>9</v>
+      </c>
+      <c r="R78">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O79">
+        <v>959</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>10</v>
+      </c>
+      <c r="R79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>11</v>
+      </c>
+      <c r="O80">
+        <v>17</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81">
+        <v>24</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>12</v>
+      </c>
+      <c r="R81">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="82" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>13</v>
+      </c>
+      <c r="O82">
+        <v>1.0990646477801E-2</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>13</v>
+      </c>
+      <c r="R82">
+        <v>1.0990646477801E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>14</v>
+      </c>
+      <c r="O83">
+        <v>1.02209348887467E-2</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>14</v>
+      </c>
+      <c r="R83">
+        <v>1.02209348887467E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>15</v>
+      </c>
+      <c r="O84">
+        <v>1.02260491922385E-2</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>15</v>
+      </c>
+      <c r="R84">
+        <v>1.02260491922385E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N87" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N88" t="s">
         <v>6</v>
       </c>
@@ -2429,12 +4318,132 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91">
+        <v>1000</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>9</v>
+      </c>
+      <c r="O92">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>9</v>
+      </c>
+      <c r="R92">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93">
+        <v>961</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>11</v>
+      </c>
+      <c r="O94">
+        <v>35</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>11</v>
+      </c>
+      <c r="R94">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>12</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>12</v>
+      </c>
+      <c r="R95">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="96" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>13</v>
+      </c>
+      <c r="O96">
+        <v>8.9899177081884194E-3</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>13</v>
+      </c>
+      <c r="R96">
+        <v>8.9899177081884298E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97">
+        <v>6.8705618693087897E-3</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>14</v>
+      </c>
+      <c r="R97">
+        <v>6.8705618693087897E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>15</v>
+      </c>
+      <c r="O98">
+        <v>6.8739997288530799E-3</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>15</v>
+      </c>
+      <c r="R98">
+        <v>6.8739997288530799E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N101" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N102" t="s">
         <v>6</v>
       </c>
@@ -2442,17 +4451,257 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>8</v>
+      </c>
+      <c r="O105">
+        <v>1000</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>8</v>
+      </c>
+      <c r="R105">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>9</v>
+      </c>
+      <c r="O106">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>9</v>
+      </c>
+      <c r="R106">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>10</v>
+      </c>
+      <c r="O107">
+        <v>756</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>10</v>
+      </c>
+      <c r="R107">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>11</v>
+      </c>
+      <c r="O108">
+        <v>140</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>11</v>
+      </c>
+      <c r="R108">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>12</v>
+      </c>
+      <c r="O109">
+        <v>104</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>12</v>
+      </c>
+      <c r="R109">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="110" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>13</v>
+      </c>
+      <c r="O110">
+        <v>2.34974491892205E-2</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>13</v>
+      </c>
+      <c r="R110">
+        <v>2.34974491892205E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>14</v>
+      </c>
+      <c r="O111">
+        <v>2.0437077051281002E-2</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>14</v>
+      </c>
+      <c r="R111">
+        <v>2.0437077051281002E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>15</v>
+      </c>
+      <c r="O112">
+        <v>2.04473032601027E-2</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>15</v>
+      </c>
+      <c r="R112">
+        <v>2.04473032601027E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N115" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N116" t="s">
         <v>6</v>
       </c>
       <c r="Q116" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>8</v>
+      </c>
+      <c r="O119">
+        <v>1000</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>8</v>
+      </c>
+      <c r="R119">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N120" t="s">
+        <v>9</v>
+      </c>
+      <c r="O120">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>9</v>
+      </c>
+      <c r="R120">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N121" t="s">
+        <v>10</v>
+      </c>
+      <c r="O121">
+        <v>766</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>10</v>
+      </c>
+      <c r="R121">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>11</v>
+      </c>
+      <c r="O122">
+        <v>118</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>11</v>
+      </c>
+      <c r="R122">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>12</v>
+      </c>
+      <c r="O123">
+        <v>116</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>12</v>
+      </c>
+      <c r="R123">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="124" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>13</v>
+      </c>
+      <c r="O124">
+        <v>2.3550605087767899E-2</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>13</v>
+      </c>
+      <c r="R124">
+        <v>2.3550605087767899E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N125" t="s">
+        <v>14</v>
+      </c>
+      <c r="O125">
+        <v>2.10072320880214E-2</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>14</v>
+      </c>
+      <c r="R125">
+        <v>2.10072320880214E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>15</v>
+      </c>
+      <c r="O126">
+        <v>2.1017743588348001E-2</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>15</v>
+      </c>
+      <c r="R126">
+        <v>2.1017743588348001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2467,10 +4716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P113"/>
+  <dimension ref="B4:Q123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C5"/>
+    <sheetView topLeftCell="E94" workbookViewId="0">
+      <selection activeCell="P115" sqref="P115:Q123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,7 +4730,7 @@
     <col min="16" max="16" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2492,7 +4741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +4755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -2514,17 +4763,135 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>1000</v>
+      </c>
+      <c r="P8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>303</v>
+      </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>534</v>
+      </c>
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>163</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>3.0685113002887801E-2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13">
+        <v>3.0685113002887801E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>2.0705616629310999E-2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14">
+        <v>2.0705616629310999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>2.0715977208707999E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>2.0715977208707999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>6</v>
       </c>
@@ -2532,12 +4899,132 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <v>1000</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="P23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>0.50949999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>433</v>
+      </c>
+      <c r="P24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>115</v>
+      </c>
+      <c r="P25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>452</v>
+      </c>
+      <c r="P26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27">
+        <v>3.09847268117696E-2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27">
+        <v>3.09847268117696E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <v>2.91480238712678E-2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28">
+        <v>2.91480238712678E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>2.91626088228291E-2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29">
+        <v>2.91626088228291E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M33" t="s">
         <v>6</v>
       </c>
@@ -2545,12 +5032,132 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>1000</v>
+      </c>
+      <c r="P36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="P37" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="38" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <v>677</v>
+      </c>
+      <c r="P38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39">
+        <v>14</v>
+      </c>
+      <c r="P39" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40">
+        <v>309</v>
+      </c>
+      <c r="P40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="41" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>2.8815599775121801E-2</v>
+      </c>
+      <c r="P41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41">
+        <v>2.8815599775121801E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>2.85813433973982E-2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42">
+        <v>2.85813433973982E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>2.8595644796040098E-2</v>
+      </c>
+      <c r="P43" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q43">
+        <v>2.8595644796040098E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M46" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
         <v>6</v>
       </c>
@@ -2558,12 +5165,132 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>108</v>
+      </c>
+      <c r="P49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>8</v>
+      </c>
+      <c r="N50">
+        <v>1000</v>
+      </c>
+      <c r="P50" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="P51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>0.24149999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>680</v>
+      </c>
+      <c r="P52" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53">
+        <v>157</v>
+      </c>
+      <c r="P53" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54">
+        <v>163</v>
+      </c>
+      <c r="P54" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="55" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <v>2.6527262286183999E-2</v>
+      </c>
+      <c r="P55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q55">
+        <v>2.6527262286183899E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>2.35140988430345E-2</v>
+      </c>
+      <c r="P56" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q56">
+        <v>2.35140988430345E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57">
+        <v>2.3525864717597701E-2</v>
+      </c>
+      <c r="P57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q57">
+        <v>2.3525864717597701E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M60" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M61" t="s">
         <v>6</v>
       </c>
@@ -2571,12 +5298,132 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>8</v>
+      </c>
+      <c r="N64">
+        <v>1000</v>
+      </c>
+      <c r="P64" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="P65" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q65">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="66" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>662</v>
+      </c>
+      <c r="P66" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>11</v>
+      </c>
+      <c r="N67">
+        <v>246</v>
+      </c>
+      <c r="P67" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q67">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68">
+        <v>92</v>
+      </c>
+      <c r="P68" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q68">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="69" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69">
+        <v>2.54630328122947E-2</v>
+      </c>
+      <c r="P69" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q69">
+        <v>2.54630328122947E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70">
+        <v>2.0300434478108999E-2</v>
+      </c>
+      <c r="P70" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q70">
+        <v>2.0300434478108999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>15</v>
+      </c>
+      <c r="N71">
+        <v>2.0310592314360401E-2</v>
+      </c>
+      <c r="P71" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q71">
+        <v>2.0310592314360498E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M73" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
         <v>6</v>
       </c>
@@ -2584,12 +5431,132 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>109</v>
+      </c>
+      <c r="P76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>8</v>
+      </c>
+      <c r="N77">
+        <v>1000</v>
+      </c>
+      <c r="P77" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>9</v>
+      </c>
+      <c r="N78">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="P78" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q78">
+        <v>0.38150000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>426</v>
+      </c>
+      <c r="P79" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q79">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>11</v>
+      </c>
+      <c r="N80">
+        <v>385</v>
+      </c>
+      <c r="P80" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q80">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81">
+        <v>189</v>
+      </c>
+      <c r="P81" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q81">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82">
+        <v>3.0107395975075599E-2</v>
+      </c>
+      <c r="P82" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q82">
+        <v>3.0107395975075599E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83">
+        <v>2.3166814463797099E-2</v>
+      </c>
+      <c r="P83" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q83">
+        <v>2.3166814463797099E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>15</v>
+      </c>
+      <c r="N84">
+        <v>2.3178406565830399E-2</v>
+      </c>
+      <c r="P84" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q84">
+        <v>2.3178406565830399E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M86" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M87" t="s">
         <v>6</v>
       </c>
@@ -2597,12 +5564,132 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>110</v>
+      </c>
+      <c r="P89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>8</v>
+      </c>
+      <c r="N90">
+        <v>1000</v>
+      </c>
+      <c r="P90" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>9</v>
+      </c>
+      <c r="N91">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="P91" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q91">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>10</v>
+      </c>
+      <c r="N92">
+        <v>28</v>
+      </c>
+      <c r="P92" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q92">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M93" t="s">
+        <v>11</v>
+      </c>
+      <c r="N93">
+        <v>870</v>
+      </c>
+      <c r="P93" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q93">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="94" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>12</v>
+      </c>
+      <c r="N94">
+        <v>102</v>
+      </c>
+      <c r="P94" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>13</v>
+      </c>
+      <c r="N95">
+        <v>3.09053530897157E-2</v>
+      </c>
+      <c r="P95" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q95">
+        <v>3.09053530897157E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96">
+        <v>1.09358515717798E-2</v>
+      </c>
+      <c r="P96" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q96">
+        <v>1.09358515717798E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>15</v>
+      </c>
+      <c r="N97">
+        <v>1.09413236019305E-2</v>
+      </c>
+      <c r="P97" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q97">
+        <v>1.09413236019305E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M99" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M100" t="s">
         <v>6</v>
       </c>
@@ -2610,17 +5697,257 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M102" t="s">
+        <v>111</v>
+      </c>
+      <c r="P102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
+        <v>8</v>
+      </c>
+      <c r="N103">
+        <v>1000</v>
+      </c>
+      <c r="P103" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q103">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M104" t="s">
+        <v>9</v>
+      </c>
+      <c r="N104">
+        <v>0.4985</v>
+      </c>
+      <c r="P104" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q104">
+        <v>0.50149999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>10</v>
+      </c>
+      <c r="N105">
+        <v>480</v>
+      </c>
+      <c r="P105" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q105">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="106" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M106" t="s">
+        <v>11</v>
+      </c>
+      <c r="N106">
+        <v>37</v>
+      </c>
+      <c r="P106" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q106">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M107" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107">
+        <v>483</v>
+      </c>
+      <c r="P107" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q107">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>13</v>
+      </c>
+      <c r="N108">
+        <v>3.09901816128915E-2</v>
+      </c>
+      <c r="P108" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q108">
+        <v>3.09901816128915E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M109" t="s">
+        <v>14</v>
+      </c>
+      <c r="N109">
+        <v>3.0411454361802499E-2</v>
+      </c>
+      <c r="P109" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q109">
+        <v>3.0411454361802499E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M110" t="s">
+        <v>15</v>
+      </c>
+      <c r="N110">
+        <v>3.04266715027907E-2</v>
+      </c>
+      <c r="P110" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q110">
+        <v>3.04266715027907E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M112" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M113" t="s">
         <v>6</v>
       </c>
       <c r="P113" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M115" t="s">
+        <v>112</v>
+      </c>
+      <c r="P115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M116" t="s">
+        <v>8</v>
+      </c>
+      <c r="N116">
+        <v>1000</v>
+      </c>
+      <c r="P116" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q116">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M117" t="s">
+        <v>9</v>
+      </c>
+      <c r="N117">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="P117" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q117">
+        <v>0.51449999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M118" t="s">
+        <v>10</v>
+      </c>
+      <c r="N118">
+        <v>280</v>
+      </c>
+      <c r="P118" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q118">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M119" t="s">
+        <v>11</v>
+      </c>
+      <c r="N119">
+        <v>411</v>
+      </c>
+      <c r="P119" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q119">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M120" t="s">
+        <v>12</v>
+      </c>
+      <c r="N120">
+        <v>309</v>
+      </c>
+      <c r="P120" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q120">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M121" t="s">
+        <v>13</v>
+      </c>
+      <c r="N121">
+        <v>3.09772868986294E-2</v>
+      </c>
+      <c r="P121" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q121">
+        <v>3.09772868986294E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M122" t="s">
+        <v>14</v>
+      </c>
+      <c r="N122">
+        <v>2.37669498169201E-2</v>
+      </c>
+      <c r="P122" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q122">
+        <v>2.37669498169201E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>15</v>
+      </c>
+      <c r="N123">
+        <v>2.3778842211868399E-2</v>
+      </c>
+      <c r="P123" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q123">
+        <v>2.3778842211868399E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2635,10 +5962,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:Q116"/>
+  <dimension ref="C4:R126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:K4"/>
+    <sheetView tabSelected="1" topLeftCell="F94" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118:R126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,7 +5977,7 @@
     <col min="17" max="17" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +5988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -2675,7 +6002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -2683,17 +6010,135 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>210</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>552</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>238</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13">
+        <v>3.0978170481808599E-2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13">
+        <v>3.0978170481808599E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>2.0724532477235699E-2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14">
+        <v>2.0724532477235699E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>2.07349025216561E-2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15">
+        <v>2.07349025216561E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N18" t="s">
         <v>29</v>
       </c>
@@ -2701,12 +6146,132 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21">
+        <v>1000</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <v>0.51249999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>427</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24">
+        <v>121</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>452</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <v>3.0980635080643502E-2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26">
+        <v>3.0980635080643502E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27">
+        <v>2.9044644084581201E-2</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27">
+        <v>2.9044644084581201E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>2.9059177307449401E-2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28">
+        <v>2.9059177307449401E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
         <v>29</v>
       </c>
@@ -2714,12 +6279,132 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>1000</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>9</v>
+      </c>
+      <c r="R36">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>445</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="38" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O39">
+        <v>531</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="40" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>13</v>
+      </c>
+      <c r="O40">
+        <v>3.08755061756078E-2</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40">
+        <v>3.08755061756078E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41">
+        <v>3.0499955436032899E-2</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41">
+        <v>3.0499955436032899E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42">
+        <v>3.0515216860773801E-2</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>15</v>
+      </c>
+      <c r="R42">
+        <v>3.0515216860773801E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N45" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N46" t="s">
         <v>29</v>
       </c>
@@ -2727,12 +6412,132 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49">
+        <v>1000</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O50">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50">
+        <v>0.4955</v>
+      </c>
+    </row>
+    <row r="51" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>10</v>
+      </c>
+      <c r="O51">
+        <v>198</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>10</v>
+      </c>
+      <c r="R51">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <v>613</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="53" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <v>189</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>12</v>
+      </c>
+      <c r="R53">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>13</v>
+      </c>
+      <c r="O54">
+        <v>3.0989065936229802E-2</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>13</v>
+      </c>
+      <c r="R54">
+        <v>3.0989065936229802E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>14</v>
+      </c>
+      <c r="O55">
+        <v>1.92768515997815E-2</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>14</v>
+      </c>
+      <c r="R55">
+        <v>1.92768515997815E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>15</v>
+      </c>
+      <c r="O56">
+        <v>1.928649726043E-2</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>15</v>
+      </c>
+      <c r="R56">
+        <v>1.928649726043E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N59" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N60" t="s">
         <v>29</v>
       </c>
@@ -2740,12 +6545,132 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63">
+        <v>1000</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>8</v>
+      </c>
+      <c r="R63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O64">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>9</v>
+      </c>
+      <c r="R64">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65">
+        <v>250</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>10</v>
+      </c>
+      <c r="R65">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66">
+        <v>516</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>11</v>
+      </c>
+      <c r="R66">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="67" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67">
+        <v>234</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>12</v>
+      </c>
+      <c r="R67">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>13</v>
+      </c>
+      <c r="O68">
+        <v>3.0986354054647901E-2</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>13</v>
+      </c>
+      <c r="R68">
+        <v>3.0986354054647901E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69">
+        <v>2.15542974276592E-2</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>14</v>
+      </c>
+      <c r="R69">
+        <v>2.15542974276592E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70">
+        <v>2.1565082665976201E-2</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>15</v>
+      </c>
+      <c r="R70">
+        <v>2.1565082665976201E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N73" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N74" t="s">
         <v>29</v>
       </c>
@@ -2753,12 +6678,132 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>8</v>
+      </c>
+      <c r="O77">
+        <v>1000</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>8</v>
+      </c>
+      <c r="R77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>9</v>
+      </c>
+      <c r="O78">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>9</v>
+      </c>
+      <c r="R78">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O79">
+        <v>203</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>10</v>
+      </c>
+      <c r="R79">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>11</v>
+      </c>
+      <c r="O80">
+        <v>568</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R80">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="81" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81">
+        <v>229</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>12</v>
+      </c>
+      <c r="R81">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>13</v>
+      </c>
+      <c r="O82">
+        <v>3.0979844570300799E-2</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>13</v>
+      </c>
+      <c r="R82">
+        <v>3.0979844570300799E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>14</v>
+      </c>
+      <c r="O83">
+        <v>2.0352974465664701E-2</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>14</v>
+      </c>
+      <c r="R83">
+        <v>2.0352974465664701E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>15</v>
+      </c>
+      <c r="O84">
+        <v>2.0363158591628801E-2</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>15</v>
+      </c>
+      <c r="R84">
+        <v>2.0363158591628801E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N87" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N88" t="s">
         <v>29</v>
       </c>
@@ -2766,12 +6811,132 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91">
+        <v>1000</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>9</v>
+      </c>
+      <c r="O92">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>9</v>
+      </c>
+      <c r="R92">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93">
+        <v>28</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>11</v>
+      </c>
+      <c r="O94">
+        <v>962</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>11</v>
+      </c>
+      <c r="R94">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="95" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>12</v>
+      </c>
+      <c r="O95">
+        <v>10</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>12</v>
+      </c>
+      <c r="R95">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>13</v>
+      </c>
+      <c r="O96">
+        <v>3.0985300230915901E-2</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>13</v>
+      </c>
+      <c r="R96">
+        <v>3.0985300230915901E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97">
+        <v>6.0153163175347604E-3</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>14</v>
+      </c>
+      <c r="R97">
+        <v>6.0153163175347604E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>15</v>
+      </c>
+      <c r="O98">
+        <v>6.0183262333185798E-3</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>15</v>
+      </c>
+      <c r="R98">
+        <v>6.0183262333185798E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N101" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N102" t="s">
         <v>29</v>
       </c>
@@ -2779,17 +6944,257 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>8</v>
+      </c>
+      <c r="O105">
+        <v>1000</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>8</v>
+      </c>
+      <c r="R105">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>9</v>
+      </c>
+      <c r="O106">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>9</v>
+      </c>
+      <c r="R106">
+        <v>0.47249999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>10</v>
+      </c>
+      <c r="O107">
+        <v>512</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>10</v>
+      </c>
+      <c r="R107">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="108" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>11</v>
+      </c>
+      <c r="O108">
+        <v>31</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>11</v>
+      </c>
+      <c r="R108">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>12</v>
+      </c>
+      <c r="O109">
+        <v>457</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>12</v>
+      </c>
+      <c r="R109">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="110" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>13</v>
+      </c>
+      <c r="O110">
+        <v>3.09434127077153E-2</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>13</v>
+      </c>
+      <c r="R110">
+        <v>3.09434127077153E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>14</v>
+      </c>
+      <c r="O111">
+        <v>3.0458535585283799E-2</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>14</v>
+      </c>
+      <c r="R111">
+        <v>3.0458535585283799E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>15</v>
+      </c>
+      <c r="O112">
+        <v>3.0473776284553899E-2</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>15</v>
+      </c>
+      <c r="R112">
+        <v>3.0473776284553899E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N115" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="14:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N116" t="s">
         <v>29</v>
       </c>
       <c r="Q116" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>8</v>
+      </c>
+      <c r="O119">
+        <v>1000</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>8</v>
+      </c>
+      <c r="R119">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N120" t="s">
+        <v>9</v>
+      </c>
+      <c r="O120">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>9</v>
+      </c>
+      <c r="R120">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N121" t="s">
+        <v>10</v>
+      </c>
+      <c r="O121">
+        <v>260</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>10</v>
+      </c>
+      <c r="R121">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="122" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>11</v>
+      </c>
+      <c r="O122">
+        <v>422</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>11</v>
+      </c>
+      <c r="R122">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>12</v>
+      </c>
+      <c r="O123">
+        <v>318</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>12</v>
+      </c>
+      <c r="R123">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>13</v>
+      </c>
+      <c r="O124">
+        <v>3.0938151437989898E-2</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>13</v>
+      </c>
+      <c r="R124">
+        <v>3.0938151437989898E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N125" t="s">
+        <v>14</v>
+      </c>
+      <c r="O125">
+        <v>2.3492135160517E-2</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>14</v>
+      </c>
+      <c r="R125">
+        <v>2.3492135160517E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>15</v>
+      </c>
+      <c r="O126">
+        <v>2.3503890044995601E-2</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>15</v>
+      </c>
+      <c r="R126">
+        <v>2.3503890044995601E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +7212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M126"/>
   <sheetViews>
-    <sheetView topLeftCell="D100" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="D34" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
@@ -5302,7 +9707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:P126"/>
   <sheetViews>
-    <sheetView topLeftCell="D100" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="D37" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
@@ -6548,8 +10953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+    <sheetView topLeftCell="B93" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
